--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_12_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_12_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53316.68270869566</v>
+        <v>10610019.85903043</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53316.68270869566</v>
+        <v>10610019.85903043</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5648.068322004608</v>
+        <v>739331.8149151313</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5648.068322004608</v>
+        <v>739331.8149151313</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418947995.735369</v>
+        <v>57802904.0348032</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11630.81524069998</v>
+        <v>1273979.273056674</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22556.78087904938</v>
+        <v>2438264.635055982</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33482.74651739878</v>
+        <v>3602549.99705529</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44905.62542043484</v>
+        <v>4784515.643303298</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56241.07644468302</v>
+        <v>5949083.141672519</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67576.52746893118</v>
+        <v>7113650.64004174</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78911.97849317934</v>
+        <v>8278218.138410955</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90247.42951742752</v>
+        <v>9442785.636780169</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101582.8805416757</v>
+        <v>10607353.13514939</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112918.3315659239</v>
+        <v>11771920.6335186</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>124253.782590172</v>
+        <v>12936488.13188782</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>135092.3203497335</v>
+        <v>14083375.34600835</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>146018.2859880829</v>
+        <v>15247660.70800767</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>157885.915337469</v>
+        <v>16278829.1410806</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>169753.5446868551</v>
+        <v>17309997.57415354</v>
       </c>
     </row>
   </sheetData>
